--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-democlient\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62D1E3C8-593D-49BD-9CEC-FA2C82B331CD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6035D5-02F7-4837-9E0E-B2C57BEEF12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -43,10 +43,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>192.168.20.131</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>RoomServerAddress</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -60,6 +56,10 @@
   </si>
   <si>
     <t>4739125571824462819</t>
+  </si>
+  <si>
+    <t>192.168.3.4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -388,24 +388,24 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10:F11"/>
+      <selection activeCell="D4" sqref="D4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -416,33 +416,33 @@
         <v>3</v>
       </c>
       <c r="D2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" t="s">
         <v>5</v>
       </c>
-      <c r="E2" t="s">
+      <c r="F2" t="s">
         <v>6</v>
       </c>
-      <c r="F2" t="s">
-        <v>7</v>
-      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="C3">
         <v>9999</v>
       </c>
       <c r="D3" t="s">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="E3">
         <v>8889</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Assets/StreamingAssets/Data/server_config.xlsx
+++ b/Assets/StreamingAssets/Data/server_config.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work-hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Work-Hexmap\hexmap-roomserver\Assets\StreamingAssets\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA6035D5-02F7-4837-9E0E-B2C57BEEF12E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8534DDA-C15B-4EF0-A987-DA1B13A37B3F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="15600" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -58,7 +58,7 @@
     <t>4739125571824462819</t>
   </si>
   <si>
-    <t>192.168.3.4</t>
+    <t>192.168.20.131</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -388,24 +388,24 @@
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="19.21875" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="19.109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="15.44140625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="22.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="19.25" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="15.5" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="22.25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -425,7 +425,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>1</v>
       </c>
